--- a/deliverables/D6_2/Dissemination_Report.xlsx
+++ b/deliverables/D6_2/Dissemination_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto\git\agid\EeISI\deliverables\D6_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7474210-9E7C-4425-B848-CF0B9463ECE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71A3E5-2DD7-491B-A5C8-2090F981E608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="3" r:id="rId1"/>
@@ -301,57 +301,6 @@
     <t>Workshop</t>
   </si>
   <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named REGGIO EMILIA. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named PRATO. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named LUCCA. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named BOLZANO. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named VERONA. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named ORISTANO. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named BARI. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named PADOVA. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named FORLI'. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named RIMINI. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named TREVISO. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named LECCE. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named COSENZA. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named CAMPOBASSO. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named RIETI. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named VITERBO. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any avalilable material is contained in the folder named PALMANOVA The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
-  </si>
-  <si>
     <t>UNINFO Workshop 1</t>
   </si>
   <si>
@@ -555,6 +504,57 @@
   </si>
   <si>
     <t>"UBL: il linguaggio universale per il business". Article published in the October 2019 issue of the Italian NSB UNI "Unificazione&amp;Certificazione"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named REGGIO EMILIA. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named PRATO. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named LUCCA. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named BOLZANO. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named VERONA. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named ORISTANO. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named BARI. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named PADOVA. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named FORLI'. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named RIMINI. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named TREVISO. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named LECCE. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named COSENZA. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named CAMPOBASSO. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named RIETI. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named VITERBO. The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any available material is contained in the folder named PALMANOVA The folder contains: - the final report on the event, - pictures taken in place, - poster of the event and text of the invitation e-mail, - any press releases and other material extracted from the web and/or social media. </t>
   </si>
 </sst>
 </file>
@@ -817,6 +817,270 @@
   <dxfs count="42">
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2"/>
@@ -836,9 +1100,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -976,13 +1237,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -992,6 +1246,16 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1009,197 +1273,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1382,13 +1455,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1411,19 +1477,12 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1434,74 +1493,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1518,60 +1518,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D670373-D893-4E8A-8AC1-46A4F6266737}" name="Table3" displayName="Table3" ref="A1:G27" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D670373-D893-4E8A-8AC1-46A4F6266737}" name="Table3" displayName="Table3" ref="A1:G27" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="A1:G27" xr:uid="{B9DF3301-F83B-41FA-BDE7-3442226BA45D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{84153B45-C1E9-4EC2-BC7E-B72F15352D48}" name="Date" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{3BB47EA1-370D-4DF1-8B7E-650AF00B2F6F}" name="Place" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{7DBA1813-F7C8-4AB4-B563-4E3F31E31A42}" name="Event" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{8056D29F-2C86-486F-9E74-7575BA99C8B9}" name="Title" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{4DF924EF-65FC-4C0F-B89C-FBCA0788153E}" name="Partners" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{E15F8A3E-126A-43AD-9929-45264E9FCBE1}" name="Person" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{3AF0C7FA-C9A6-4DC2-AE40-1BC6DCF470CB}" name="Available material" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{84153B45-C1E9-4EC2-BC7E-B72F15352D48}" name="Date" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{3BB47EA1-370D-4DF1-8B7E-650AF00B2F6F}" name="Place" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{7DBA1813-F7C8-4AB4-B563-4E3F31E31A42}" name="Event" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{8056D29F-2C86-486F-9E74-7575BA99C8B9}" name="Title" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{4DF924EF-65FC-4C0F-B89C-FBCA0788153E}" name="Partners" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{E15F8A3E-126A-43AD-9929-45264E9FCBE1}" name="Person" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{3AF0C7FA-C9A6-4DC2-AE40-1BC6DCF470CB}" name="Available material" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{47CF682E-B892-4F81-8914-21D357714195}" name="Table4" displayName="Table4" ref="A1:G7" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{47CF682E-B892-4F81-8914-21D357714195}" name="Table4" displayName="Table4" ref="A1:G7" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A1:G7" xr:uid="{603E1279-B271-426F-BED5-13D1BACC0E15}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{136FC047-61E9-4B5D-B57C-90ACE27C7667}" name="Date" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{73D692FE-9E74-4E70-B254-EA98A22690BA}" name="Place" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{D17DC52D-52AE-4A56-A923-83B41F2A56BE}" name="Event" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{994AD5E9-1493-4D47-A795-492DB8A8F89A}" name="Title" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{1E5B5913-DF1A-436C-8D02-48726A28E481}" name="Partners" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{29E08FFE-CB21-4BB9-B8E9-0217526E2F5E}" name="Person" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{ABE1693A-4D49-4F8F-B2C0-91C40B4719A7}" name="Available material" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{136FC047-61E9-4B5D-B57C-90ACE27C7667}" name="Date" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{73D692FE-9E74-4E70-B254-EA98A22690BA}" name="Place" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{D17DC52D-52AE-4A56-A923-83B41F2A56BE}" name="Event" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{994AD5E9-1493-4D47-A795-492DB8A8F89A}" name="Title" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{1E5B5913-DF1A-436C-8D02-48726A28E481}" name="Partners" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{29E08FFE-CB21-4BB9-B8E9-0217526E2F5E}" name="Person" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{ABE1693A-4D49-4F8F-B2C0-91C40B4719A7}" name="Available material" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8F227D57-54CD-4654-B591-128C9D2AF118}" name="Table5" displayName="Table5" ref="A1:G10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8F227D57-54CD-4654-B591-128C9D2AF118}" name="Table5" displayName="Table5" ref="A1:G10" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:G10" xr:uid="{C1A5153D-D56B-49B0-8702-621EA8ABE2CD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7F42949E-3B33-411C-883D-AC23561B3986}" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CD0A0122-3A8D-4314-9384-C802049B9208}" name="Place" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{1E1DE51B-F3F4-4C66-B684-3E85B21DA81D}" name="Event" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{FEB8859F-2C38-46AD-B443-3672C8C6E4AD}" name="Title" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{5EBF171F-7FC7-422C-99E2-4A0D22BF0F8F}" name="Partners" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{685890B7-E7E0-40D7-B798-E9C88338B8B8}" name="Person" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{D681BEA9-4814-4052-8C27-42359984433A}" name="Available material" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7F42949E-3B33-411C-883D-AC23561B3986}" name="Date" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{CD0A0122-3A8D-4314-9384-C802049B9208}" name="Place" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{1E1DE51B-F3F4-4C66-B684-3E85B21DA81D}" name="Event" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FEB8859F-2C38-46AD-B443-3672C8C6E4AD}" name="Title" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{5EBF171F-7FC7-422C-99E2-4A0D22BF0F8F}" name="Partners" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{685890B7-E7E0-40D7-B798-E9C88338B8B8}" name="Person" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D681BEA9-4814-4052-8C27-42359984433A}" name="Available material" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{285C0914-523E-4571-9E69-FB6AB6D6F5B1}" name="Table2" displayName="Table2" ref="A1:C29" totalsRowShown="0" headerRowBorderDxfId="40" tableBorderDxfId="41" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{285C0914-523E-4571-9E69-FB6AB6D6F5B1}" name="Table2" displayName="Table2" ref="A1:C29" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C29" xr:uid="{B8F7A611-EF01-4EAB-AE0E-5CACCAB81C8E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{23792606-FBDC-4A04-855D-2472349E1E8D}" name="Partner" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{69BA2735-EF82-4367-ADDD-0CD141B9DD78}" name="Type" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{09383AB1-E85C-4B6E-B0EC-1FFDCB933356}" name="Link" dataDxfId="36" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{23792606-FBDC-4A04-855D-2472349E1E8D}" name="Partner" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{69BA2735-EF82-4367-ADDD-0CD141B9DD78}" name="Type" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{09383AB1-E85C-4B6E-B0EC-1FFDCB933356}" name="Link" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1876,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1920,22 +1920,22 @@
         <v>43516</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -1943,22 +1943,22 @@
         <v>43567</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -1981,7 +1981,7 @@
         <v>83</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -2004,7 +2004,7 @@
         <v>83</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -2027,7 +2027,7 @@
         <v>83</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -2050,7 +2050,7 @@
         <v>83</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -2073,7 +2073,7 @@
         <v>85</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -2096,7 +2096,7 @@
         <v>83</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -2119,7 +2119,7 @@
         <v>83</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -2142,7 +2142,7 @@
         <v>83</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -2165,7 +2165,7 @@
         <v>83</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -2188,7 +2188,7 @@
         <v>83</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -2211,7 +2211,7 @@
         <v>83</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -2234,7 +2234,7 @@
         <v>83</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
         <v>86</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -2280,7 +2280,7 @@
         <v>83</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -2303,7 +2303,7 @@
         <v>83</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -2314,19 +2314,19 @@
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
         <v>85</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
@@ -2360,19 +2360,19 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
@@ -2383,19 +2383,19 @@
         <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I22" s="5"/>
     </row>
@@ -2407,19 +2407,19 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H23" s="5"/>
     </row>
@@ -2443,7 +2443,7 @@
         <v>83</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -2454,19 +2454,19 @@
         <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -2477,19 +2477,19 @@
         <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -2500,19 +2500,19 @@
         <v>18</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2572,45 +2572,45 @@
         <v>43508</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
@@ -2618,22 +2618,22 @@
         <v>43643</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
@@ -2641,22 +2641,22 @@
         <v>44010</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
@@ -2664,22 +2664,22 @@
         <v>43662</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -2687,22 +2687,22 @@
         <v>43804</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2761,7 +2761,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -2770,10 +2770,10 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -2784,7 +2784,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -2793,10 +2793,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -2807,7 +2807,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -2816,10 +2816,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -2830,7 +2830,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -2839,10 +2839,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -2853,7 +2853,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -2862,10 +2862,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -2876,7 +2876,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -2885,10 +2885,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -2899,7 +2899,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -2908,10 +2908,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -2922,7 +2922,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
@@ -2931,10 +2931,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -2945,7 +2945,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>22</v>
@@ -2954,10 +2954,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +2972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3206,13 +3206,13 @@
     </row>
     <row r="21" spans="1:3" s="4" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
@@ -3275,10 +3275,10 @@
         <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="202.8" x14ac:dyDescent="0.3">
@@ -3289,7 +3289,7 @@
         <v>82</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="234" x14ac:dyDescent="0.3">
@@ -3297,10 +3297,10 @@
         <v>81</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
